--- a/yields_scraper/השתלמות_תשואות_מעובד.xlsx
+++ b/yields_scraper/השתלמות_תשואות_מעובד.xlsx
@@ -522,19 +522,19 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>74.7</v>
+        <v>74.5</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>-1887.96</v>
+        <v>-1624.73</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>20294.3</v>
+        <v>20520.68</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.54</v>
+        <v/>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
@@ -545,17 +545,17 @@
         <v>1.24</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>8.73</v>
+        <v>8.44</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>11.12</v>
+        <v>12.13</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>16.18</v>
+        <v>16.77</v>
       </c>
       <c r="K2" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L2" s="2" t="inlineStr">
@@ -572,16 +572,16 @@
         <v>0.12</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>78.7</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>-163.25</v>
+        <v>-54.73</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>12208.56</v>
+        <v>12417.15</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.62</v>
+        <v/>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
@@ -589,20 +589,20 @@
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>8.32</v>
+        <v>8.17</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>11.13</v>
+        <v>12.08</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>15.99</v>
+        <v>16.31</v>
       </c>
       <c r="K3" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L3" s="2" t="inlineStr">
@@ -616,19 +616,19 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>76.2</v>
+        <v>77</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>417.7</v>
+        <v>826.23</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>21410.79</v>
+        <v>21994.31</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.67</v>
+        <v/>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
@@ -636,20 +636,20 @@
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>8.85</v>
+        <v>8.59</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>11.66</v>
+        <v>12.74</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>15.68</v>
+        <v>15.75</v>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -663,19 +663,19 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>1.32</v>
+        <v>1.08</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>6068.2</v>
+        <v>1275.41</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>18601.5</v>
+        <v>31207.28</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.61</v>
+        <v/>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
@@ -683,46 +683,46 @@
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>9.550000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>12.68</v>
+        <v>12.97</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>15.26</v>
+        <v>15.19</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">אנליסט השתלמות כללי </t>
+          <t>מיטב השתלמות כללי</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>962</v>
+        <v>880</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>838.97</v>
+        <v>6564.77</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>30531.13</v>
+        <v>19456.81</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.58</v>
+        <v/>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
@@ -730,46 +730,46 @@
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>9.1</v>
+        <v>9.41</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>11.83</v>
+        <v>13.9</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>14.76</v>
+        <v>15.1</v>
       </c>
       <c r="K6" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>מיטב השתלמות כללי</t>
+          <t xml:space="preserve">אנליסט השתלמות כללי </t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
-        <v>880</v>
+        <v>962</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>1.56</v>
+        <v>0.48</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>2117.32</v>
+        <v>-510.31</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>25439.68</v>
+        <v>19494.21</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.71</v>
+        <v/>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
@@ -777,46 +777,46 @@
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>9.279999999999999</v>
+        <v>8.34</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>11.74</v>
+        <v>11.9</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>14.67</v>
+        <v>14.82</v>
       </c>
       <c r="K7" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">מור השתלמות - כללי </t>
+          <t>מגדל השתלמות כללי</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
-        <v>12535</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>0.6</v>
+        <v>1.32</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>76.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>-585.4400000000001</v>
+        <v>2499.93</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>19180.54</v>
+        <v>25747.29</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.55</v>
+        <v/>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
@@ -824,29 +824,29 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>8.5</v>
+        <v>8.92</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>10.92</v>
+        <v>12.49</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>14.42</v>
+        <v>14.73</v>
       </c>
       <c r="K8" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>מגדל השתלמות כללי</t>
+          <t xml:space="preserve">מור השתלמות - כללי </t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>579</v>
+        <v>12535</v>
       </c>
     </row>
     <row r="9">
@@ -854,16 +854,16 @@
         <v>0.36</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>75.8</v>
+        <v>76.3</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>-1093.03</v>
+        <v>-995.2</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>14387.08</v>
+        <v>14558.74</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.61</v>
+        <v/>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
@@ -874,17 +874,17 @@
         <v>1.17</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>7.99</v>
+        <v>7.8</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>10.17</v>
+        <v>11.16</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>13.86</v>
+        <v>14.47</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -898,19 +898,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>88.90000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>-930.37</v>
+        <v>-1694.23</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>25102.27</v>
+        <v>24801.48</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.7</v>
+        <v/>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
@@ -918,20 +918,20 @@
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>8.67</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>11.82</v>
+        <v>12.79</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>12.83</v>
+        <v>13.38</v>
       </c>
       <c r="K10" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -945,19 +945,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-2.04</v>
+        <v>-2.28</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>81.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>-7473.05</v>
+        <v>-7924.24</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>33194.92</v>
+        <v>32442.42</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.71</v>
+        <v/>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
@@ -965,20 +965,20 @@
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>6.75</v>
+        <v>6.36</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>10.7</v>
+        <v>11.53</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>12.54</v>
+        <v>12.87</v>
       </c>
       <c r="K11" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -994,21 +994,19 @@
       <c r="A12" s="5" t="inlineStr"/>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>80.3%</t>
+          <t>80.5%</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>-2,690.9</t>
+          <t>-1,637.1</t>
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>220350.77</v>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>0.64%</t>
-        </is>
+        <v>222640.37</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v/>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
@@ -1022,22 +1020,22 @@
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>8.01%</t>
+          <t>7.77%</t>
         </is>
       </c>
       <c r="I12" s="5" t="inlineStr">
         <is>
-          <t>11.25%</t>
+          <t>12.24%</t>
         </is>
       </c>
       <c r="J12" s="5" t="inlineStr">
         <is>
-          <t>14.33%</t>
+          <t>14.71%</t>
         </is>
       </c>
       <c r="K12" s="6" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L12" s="5" t="inlineStr">
@@ -1116,19 +1114,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-1.44</v>
+        <v>-1.8</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>525.34</v>
+        <v>667.3200000000001</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1339.49</v>
+        <v>1530.23</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.51</v>
+        <v/>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
@@ -1136,20 +1134,20 @@
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>13.56</v>
+        <v>13.04</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>18.31</v>
+        <v>20.67</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>26.32</v>
+        <v>27.94</v>
       </c>
       <c r="K16" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1163,19 +1161,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-3</v>
+        <v>-3.6</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>90.40000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>435.61</v>
+        <v>578.15</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>2402.41</v>
+        <v>2604.26</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.55</v>
+        <v/>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
@@ -1186,17 +1184,17 @@
         <v>1.08</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>12.71</v>
+        <v>11.97</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>16.82</v>
+        <v>19.29</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>26</v>
+        <v>27.45</v>
       </c>
       <c r="K17" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1210,19 +1208,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-1.56</v>
+        <v>-0.96</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>89.09999999999999</v>
+        <v>90</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>1496.74</v>
+        <v>1673.84</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>4028.26</v>
+        <v>4392.05</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.62</v>
+        <v/>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
@@ -1230,46 +1228,46 @@
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>13.67</v>
+        <v>13.07</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>17.82</v>
+        <v>21.53</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>25.31</v>
+        <v>26.46</v>
       </c>
       <c r="K18" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>הפניקס השתלמות מניות</t>
+          <t>מיטב השתלמות מניות</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
-        <v>968</v>
+        <v>883</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.6</v>
+        <v>-1.44</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>89.8</v>
+        <v>90.5</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>1302.85</v>
+        <v>591.12</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>3892.11</v>
+        <v>2823.83</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.52</v>
+        <v/>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
@@ -1277,46 +1275,46 @@
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>13.63</v>
+        <v>12.98</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>18.9</v>
+        <v>19.88</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>25.16</v>
+        <v>26.4</v>
       </c>
       <c r="K19" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>מיטב השתלמות מניות</t>
+          <t>הראל השתלמות מסלול מניות</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
-        <v>883</v>
+        <v>763</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.96</v>
+        <v>-2.16</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>93.5</v>
+        <v>89.7</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>787.59</v>
+        <v>1900.05</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>2398.97</v>
+        <v>4537.33</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.5</v>
+        <v/>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
@@ -1324,46 +1322,46 @@
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>13.49</v>
+        <v>12.97</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>18.6</v>
+        <v>20.43</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>24.94</v>
+        <v>25.89</v>
       </c>
       <c r="K20" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>מגדל השתלמות מניות</t>
+          <t>הפניקס השתלמות מניות</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
-        <v>869</v>
+        <v>968</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-1.2</v>
+        <v>0.72</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>90.09999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>453.68</v>
+        <v>3652.58</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>2620.02</v>
+        <v>11646.4</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.55</v>
+        <v/>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
@@ -1371,46 +1369,46 @@
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>13.49</v>
+        <v>13.43</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>17.51</v>
+        <v>20.3</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>24.92</v>
+        <v>25.86</v>
       </c>
       <c r="K21" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>הראל השתלמות מסלול מניות</t>
+          <t xml:space="preserve">מור השתלמות - מניות </t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
-        <v>763</v>
+        <v>12536</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>84.5</v>
+        <v>93</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>3126.17</v>
+        <v>953.9400000000001</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>10996.92</v>
+        <v>2637.69</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.72</v>
+        <v/>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
@@ -1418,46 +1416,46 @@
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>14.22</v>
+        <v>13.13</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>18.27</v>
+        <v>20.79</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>24.62</v>
+        <v>25.48</v>
       </c>
       <c r="K22" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">מור השתלמות - מניות </t>
+          <t>מגדל השתלמות מניות</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
-        <v>12536</v>
+        <v>869</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>1.32</v>
+        <v>1.08</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>1501.16</v>
+        <v>1094.27</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>12716.48</v>
+        <v>12845.38</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.6899999999999999</v>
+        <v/>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
@@ -1465,20 +1463,20 @@
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>14.56</v>
+        <v>14.07</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>19.35</v>
+        <v>21.59</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>20.46</v>
+        <v>21.84</v>
       </c>
       <c r="K23" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -1492,19 +1490,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-4.56</v>
+        <v>-4.92</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>88.3</v>
+        <v>88.8</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>-651.0700000000001</v>
+        <v>-822.42</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>6992.95</v>
+        <v>6884.6</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.7</v>
+        <v/>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
@@ -1512,20 +1510,20 @@
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>10.44</v>
+        <v>9.73</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>17.62</v>
+        <v>19.36</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>20.19</v>
+        <v>21.02</v>
       </c>
       <c r="K24" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
@@ -1539,19 +1537,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>95.09999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>3622.45</v>
+        <v>3416.27</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>15680.22</v>
+        <v>15970.81</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.63</v>
+        <v/>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
@@ -1559,20 +1557,20 @@
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>14.02</v>
+        <v>13.54</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>19.81</v>
+        <v>22.38</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>19.84</v>
+        <v>20.74</v>
       </c>
       <c r="K25" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
@@ -1588,21 +1586,19 @@
       <c r="A26" s="5" t="inlineStr"/>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>90.9%</t>
+          <t>91.1%</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>12,600.5</t>
+          <t>13,705.1</t>
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>63067.83</v>
-      </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>0.65%</t>
-        </is>
+        <v>65872.58</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v/>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
@@ -1616,22 +1612,22 @@
       </c>
       <c r="H26" s="5" t="inlineStr">
         <is>
-          <t>12.51%</t>
+          <t>11.98%</t>
         </is>
       </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
-          <t>18.35%</t>
+          <t>20.59%</t>
         </is>
       </c>
       <c r="J26" s="5" t="inlineStr">
         <is>
-          <t>21.97%</t>
+          <t>23.19%</t>
         </is>
       </c>
       <c r="K26" s="6" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr">
@@ -1710,19 +1706,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>3.48</v>
+        <v>3.36</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>97.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>-112.14</v>
+        <v>-316.55</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>3960.43</v>
+        <v>3797.16</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.49</v>
+        <v/>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
@@ -1730,20 +1726,20 @@
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>14.56</v>
+        <v>13.98</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>19.22</v>
+        <v>18.87</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>3.37</v>
+        <v>3.01</v>
       </c>
       <c r="K30" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
@@ -1757,19 +1753,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>3.72</v>
+        <v>3.6</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>353.17</v>
+        <v>-73.28</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>11250.63</v>
+        <v>10852.41</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.5600000000000001</v>
+        <v/>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
@@ -1777,20 +1773,20 @@
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>14.69</v>
+        <v>14.03</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>18.48</v>
+        <v>18.73</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>3.16</v>
+        <v>2.94</v>
       </c>
       <c r="K31" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
@@ -1805,16 +1801,16 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr"/>
       <c r="B32" s="3" t="n">
-        <v>96.3</v>
+        <v>95.8</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>524.23</v>
+        <v>378.98</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>2937.61</v>
+        <v>2877.38</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.48</v>
+        <v/>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
@@ -1832,14 +1828,14 @@
         </is>
       </c>
       <c r="I32" s="2" t="n">
-        <v>18.91</v>
+        <v>18.43</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>3.16</v>
+        <v>2.91</v>
       </c>
       <c r="K32" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
@@ -1854,16 +1850,16 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr"/>
       <c r="B33" s="3" t="n">
-        <v>98.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>1079.35</v>
+        <v>-48.83</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>3640.05</v>
+        <v>1248.4</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>0.49</v>
+        <v/>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
@@ -1886,69 +1882,67 @@
         </is>
       </c>
       <c r="J33" s="2" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="K33" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>מגדל השתלמות עוקב מדד S&amp;P 500</t>
+          <t>אלטשולר שחם השתלמות עוקב מדד S&amp;P 500</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
-        <v>14668</v>
+        <v>14862</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr"/>
+      <c r="A34" s="2" t="n">
+        <v>2.28</v>
+      </c>
       <c r="B34" s="3" t="n">
-        <v>98.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>1476.49</v>
+        <v>-352.39</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>7600.69</v>
+        <v>2513.18</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.49</v>
+        <v/>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> - - -</t>
         </is>
       </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - - -</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - - -</t>
-        </is>
+      <c r="G34" s="2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>12.83</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>19.21</v>
+        <v>18.11</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="K34" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>הראל השתלמות - עוקב מדד s&amp;p 500</t>
+          <t>מור השתלמות -עוקב מדד S&amp;P 500</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
-        <v>13502</v>
+        <v>9451</v>
       </c>
     </row>
     <row r="35">
@@ -1957,13 +1951,13 @@
         <v>99.40000000000001</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>117.64</v>
+        <v>893.87</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1308.69</v>
+        <v>3591.08</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>0.67</v>
+        <v/>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
@@ -1986,35 +1980,35 @@
         </is>
       </c>
       <c r="J35" s="2" t="n">
-        <v>2.9</v>
+        <v>2.73</v>
       </c>
       <c r="K35" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>אלטשולר שחם השתלמות עוקב מדד S&amp;P 500</t>
+          <t>מגדל השתלמות עוקב מדד S&amp;P 500</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
-        <v>14862</v>
+        <v>14668</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr"/>
       <c r="B36" s="3" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>673.01</v>
+        <v>1155.23</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>4749.39</v>
+        <v>7454</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.5</v>
+        <v/>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
@@ -2032,38 +2026,38 @@
         </is>
       </c>
       <c r="I36" s="2" t="n">
-        <v>18.39</v>
+        <v>18.8</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>2.79</v>
+        <v>2.64</v>
       </c>
       <c r="K36" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>כלל השתלמות עוקב  מדד s&amp;p 500</t>
+          <t>הראל השתלמות - עוקב מדד s&amp;p 500</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
-        <v>13342</v>
+        <v>13502</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr"/>
       <c r="B37" s="3" t="n">
-        <v>98.7</v>
+        <v>99.5</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>34.08</v>
+        <v>-94.01000000000001</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1826.17</v>
+        <v>1735.07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.62</v>
+        <v/>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
@@ -2081,14 +2075,14 @@
         </is>
       </c>
       <c r="I37" s="2" t="n">
-        <v>18.04</v>
+        <v>18.13</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>2.71</v>
+        <v>2.55</v>
       </c>
       <c r="K37" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
@@ -2103,16 +2097,16 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr"/>
       <c r="B38" s="3" t="n">
-        <v>98.3</v>
+        <v>99.3</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>43.02</v>
+        <v>-95.7</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1133.09</v>
+        <v>1072.35</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>0.68</v>
+        <v/>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
@@ -2135,11 +2129,11 @@
         </is>
       </c>
       <c r="J38" s="2" t="n">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="K38" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
@@ -2153,19 +2147,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>2.4</v>
+        <v>3.12</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>98</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>-198.56</v>
+        <v>444.5</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>2644.16</v>
+        <v>4631.11</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>0.71</v>
+        <v/>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
@@ -2173,29 +2167,29 @@
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>13.33</v>
+        <v>13.63</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>17.46</v>
+        <v>18.3</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>2.69</v>
+        <v>2.51</v>
       </c>
       <c r="K39" s="4" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>מור השתלמות -עוקב מדד S&amp;P 500</t>
+          <t>כלל השתלמות עוקב  מדד s&amp;p 500</t>
         </is>
       </c>
       <c r="M39" s="2" t="n">
-        <v>9451</v>
+        <v>13342</v>
       </c>
     </row>
     <row r="40">
@@ -2207,16 +2201,14 @@
       </c>
       <c r="C40" s="5" t="inlineStr">
         <is>
-          <t>3,990.3</t>
+          <t>1,891.8</t>
         </is>
       </c>
       <c r="D40" s="5" t="n">
-        <v>41050.91</v>
-      </c>
-      <c r="E40" s="5" t="inlineStr">
-        <is>
-          <t>0.55%</t>
-        </is>
+        <v>39772.14</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v/>
       </c>
       <c r="F40" s="5" t="inlineStr">
         <is>
@@ -2230,22 +2222,22 @@
       </c>
       <c r="H40" s="5" t="inlineStr">
         <is>
-          <t>14.58%</t>
+          <t>13.98%</t>
         </is>
       </c>
       <c r="I40" s="5" t="inlineStr">
         <is>
-          <t>18.58%</t>
+          <t>18.67%</t>
         </is>
       </c>
       <c r="J40" s="5" t="inlineStr">
         <is>
-          <t>3.01%</t>
+          <t>2.80%</t>
         </is>
       </c>
       <c r="K40" s="6" t="inlineStr">
         <is>
-          <t>11/25-12/24</t>
+          <t>12/25-01/25</t>
         </is>
       </c>
       <c r="L40" s="5" t="inlineStr">
